--- a/data/trans_orig/P20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E184EC-4980-4FEE-9287-BA26379AC770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF38E9C4-3B1B-4896-B8C8-21867D8D207E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{953AD837-B254-4E9B-A6F7-70601E5ECD21}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E8D323A-CA61-4099-A64B-944D0CDBE00E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="400">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -86,10 +86,10 @@
     <t>9,21%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>4,55%</t>
@@ -98,7 +98,7 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>7,9%</t>
+    <t>7,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -116,16 +116,16 @@
     <t>90,79%</t>
   </si>
   <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>92,1%</t>
+    <t>92,14%</t>
   </si>
   <si>
     <t>97,65%</t>
@@ -140,31 +140,31 @@
     <t>1,84%</t>
   </si>
   <si>
-    <t>4,98%</t>
+    <t>4,6%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>95,02%</t>
+    <t>95,4%</t>
   </si>
   <si>
     <t>98,16%</t>
@@ -173,19 +173,19 @@
     <t>93,61%</t>
   </si>
   <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,1075 +194,1051 @@
     <t>3,88%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>4,83%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>94,57%</t>
   </si>
   <si>
     <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD55B2A1-0C18-4313-B136-7091E0657908}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21313A17-6CEA-4835-A309-882ED4893485}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2737,7 +2713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622173EB-CA17-4C44-B1C9-9825005CACDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38DF67C-2C6F-4E43-9C9E-748C40EB9390}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2879,10 +2855,10 @@
         <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -2891,13 +2867,13 @@
         <v>25123</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2888,13 @@
         <v>107198</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -2927,13 +2903,13 @@
         <v>95348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>196</v>
@@ -2942,13 +2918,13 @@
         <v>202547</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +2992,13 @@
         <v>37971</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -3031,13 +3007,13 @@
         <v>58865</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
         <v>89</v>
@@ -3046,13 +3022,13 @@
         <v>96836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3043,13 @@
         <v>549733</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>496</v>
@@ -3082,13 +3058,13 @@
         <v>526280</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>1014</v>
@@ -3097,13 +3073,13 @@
         <v>1076013</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3147,13 @@
         <v>61577</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
@@ -3186,13 +3162,13 @@
         <v>96332</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -3201,13 +3177,13 @@
         <v>157909</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3198,13 @@
         <v>956370</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>853</v>
@@ -3237,13 +3213,13 @@
         <v>935852</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>1732</v>
@@ -3252,13 +3228,13 @@
         <v>1892222</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3302,13 @@
         <v>47713</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -3341,13 +3317,13 @@
         <v>75460</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -3356,13 +3332,13 @@
         <v>123173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,13 +3353,13 @@
         <v>707863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>637</v>
@@ -3392,13 +3368,13 @@
         <v>701714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>1285</v>
@@ -3407,13 +3383,13 @@
         <v>1409577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3457,13 @@
         <v>53087</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -3496,13 +3472,13 @@
         <v>91019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -3511,13 +3487,13 @@
         <v>144106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3508,13 @@
         <v>894652</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>914</v>
@@ -3547,13 +3523,13 @@
         <v>960882</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>1772</v>
@@ -3562,13 +3538,13 @@
         <v>1855534</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3612,13 @@
         <v>208914</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H19" s="7">
         <v>314</v>
@@ -3651,13 +3627,13 @@
         <v>338233</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>507</v>
@@ -3666,13 +3642,13 @@
         <v>547147</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3663,13 @@
         <v>3215817</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>2984</v>
@@ -3702,13 +3678,13 @@
         <v>3220076</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>5999</v>
@@ -3717,13 +3693,13 @@
         <v>6435893</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,7 +3776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4343A50E-1E02-4812-9344-FCB5B1FDD996}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E62CCA3-7C7B-46CF-A8C8-68F94E118437}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3817,7 +3793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3924,13 +3900,13 @@
         <v>10940</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3942,10 +3918,10 @@
         <v>75</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -3954,13 +3930,13 @@
         <v>18890</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3951,13 @@
         <v>105606</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>107</v>
@@ -3993,10 +3969,10 @@
         <v>84</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -4005,13 +3981,13 @@
         <v>211016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4055,13 @@
         <v>25084</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4094,13 +4070,13 @@
         <v>38193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -4109,13 +4085,13 @@
         <v>63277</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4106,13 @@
         <v>533170</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -4145,13 +4121,13 @@
         <v>521286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>1030</v>
@@ -4160,13 +4136,13 @@
         <v>1054456</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4210,13 @@
         <v>45679</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4252,10 +4228,10 @@
         <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -4264,13 +4240,13 @@
         <v>122686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4261,13 @@
         <v>976752</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>906</v>
@@ -4303,10 +4279,10 @@
         <v>118</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>1814</v>
@@ -4315,13 +4291,13 @@
         <v>1942658</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4365,13 @@
         <v>33193</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4404,13 +4380,13 @@
         <v>55845</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -4419,13 +4395,13 @@
         <v>89038</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4416,13 @@
         <v>726359</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>685</v>
@@ -4455,13 +4431,13 @@
         <v>729166</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>1353</v>
@@ -4470,13 +4446,13 @@
         <v>1455525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4520,13 @@
         <v>48584</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -4559,13 +4535,13 @@
         <v>94344</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>135</v>
@@ -4574,13 +4550,13 @@
         <v>142929</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,13 +4571,13 @@
         <v>888983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>873</v>
@@ -4610,13 +4586,13 @@
         <v>949435</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>1756</v>
@@ -4625,13 +4601,13 @@
         <v>1838417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4675,13 @@
         <v>163481</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>251</v>
@@ -4714,13 +4690,13 @@
         <v>273339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>406</v>
@@ -4729,13 +4705,13 @@
         <v>436820</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4726,13 @@
         <v>3230869</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>3087</v>
@@ -4765,13 +4741,13 @@
         <v>3271203</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>6163</v>
@@ -4780,13 +4756,13 @@
         <v>6502072</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,7 +4839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECAB646-51F2-4741-898C-9B6381DD4262}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BA93D7-6239-42FA-8299-EE1CC0058A6C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4880,7 +4856,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4987,13 +4963,13 @@
         <v>13231</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5002,13 +4978,13 @@
         <v>8035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -5017,13 +4993,13 @@
         <v>21267</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5014,13 @@
         <v>88751</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>231</v>
@@ -5053,13 +5029,13 @@
         <v>122698</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>333</v>
@@ -5068,13 +5044,13 @@
         <v>211448</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5118,13 @@
         <v>32460</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -5157,13 +5133,13 @@
         <v>36823</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>107</v>
@@ -5172,13 +5148,13 @@
         <v>69284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5169,13 @@
         <v>517363</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="H8" s="7">
         <v>932</v>
@@ -5208,13 +5184,13 @@
         <v>556139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M8" s="7">
         <v>1501</v>
@@ -5223,13 +5199,13 @@
         <v>1073501</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5273,13 @@
         <v>49908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -5312,13 +5288,13 @@
         <v>69607</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -5327,13 +5303,13 @@
         <v>119514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5324,13 @@
         <v>989340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>362</v>
       </c>
       <c r="H11" s="7">
         <v>1424</v>
@@ -5363,13 +5339,13 @@
         <v>989867</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>293</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>2335</v>
@@ -5378,13 +5354,13 @@
         <v>1979208</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5428,13 @@
         <v>37279</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>248</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -5467,13 +5443,13 @@
         <v>42367</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -5482,13 +5458,13 @@
         <v>79645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>127</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5479,13 @@
         <v>691493</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>985</v>
@@ -5518,13 +5494,13 @@
         <v>832004</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>1623</v>
@@ -5533,13 +5509,13 @@
         <v>1523497</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5583,13 @@
         <v>63523</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -5622,13 +5598,13 @@
         <v>79534</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>192</v>
@@ -5637,13 +5613,13 @@
         <v>143057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,28 +5634,28 @@
         <v>901880</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>1447</v>
       </c>
       <c r="I17" s="7">
-        <v>1068135</v>
+        <v>1068136</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>2375</v>
@@ -5688,13 +5664,13 @@
         <v>1970016</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,7 +5697,7 @@
         <v>1561</v>
       </c>
       <c r="I18" s="7">
-        <v>1147669</v>
+        <v>1147670</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -5762,13 +5738,13 @@
         <v>196401</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
         <v>344</v>
@@ -5777,13 +5753,13 @@
         <v>236366</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>58</v>
+        <v>392</v>
       </c>
       <c r="M19" s="7">
         <v>572</v>
@@ -5792,13 +5768,13 @@
         <v>432766</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5789,13 @@
         <v>3188827</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H20" s="7">
         <v>5019</v>
@@ -5828,13 +5804,13 @@
         <v>3568844</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>66</v>
+        <v>397</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="M20" s="7">
         <v>8167</v>
@@ -5843,13 +5819,13 @@
         <v>6757672</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF38E9C4-3B1B-4896-B8C8-21867D8D207E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C620D88-48BE-4C70-8B18-B6E8FC607DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E8D323A-CA61-4099-A64B-944D0CDBE00E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1638CE21-A771-40AE-BB2A-56DF1D4F2EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="402">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -86,19 +86,19 @@
     <t>9,21%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -116,1087 +116,1093 @@
     <t>90,79%</t>
   </si>
   <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,84%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
   </si>
   <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>95,4%</t>
   </si>
   <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>6,58%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>93,42%</t>
   </si>
   <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>94,29%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
   </si>
   <si>
     <t>93,23%</t>
@@ -1650,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21313A17-6CEA-4835-A309-882ED4893485}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB965F8C-F82B-436D-BCE4-4D7C4D3B842E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2400,7 +2406,7 @@
         <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -2409,13 +2415,13 @@
         <v>69250</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -2424,13 +2430,13 @@
         <v>112272</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2451,13 @@
         <v>899200</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>932</v>
@@ -2460,13 +2466,13 @@
         <v>969362</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>1880</v>
@@ -2475,13 +2481,13 @@
         <v>1868562</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2555,13 @@
         <v>135426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>242</v>
@@ -2564,13 +2570,13 @@
         <v>249341</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>378</v>
@@ -2579,13 +2585,13 @@
         <v>384767</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2606,13 @@
         <v>3140173</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>3055</v>
@@ -2615,13 +2621,13 @@
         <v>3129857</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>6132</v>
@@ -2630,13 +2636,13 @@
         <v>6270029</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,7 +2698,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2713,7 +2719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38DF67C-2C6F-4E43-9C9E-748C40EB9390}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC14648-CDE1-49DF-83E8-F40E210650ED}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2730,7 +2736,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2837,13 +2843,13 @@
         <v>8567</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -2852,13 +2858,13 @@
         <v>16557</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -2867,13 +2873,13 @@
         <v>25123</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2894,13 @@
         <v>107198</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -2903,13 +2909,13 @@
         <v>95348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
         <v>196</v>
@@ -2918,13 +2924,13 @@
         <v>202547</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2998,13 @@
         <v>37971</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -3007,13 +3013,13 @@
         <v>58865</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>89</v>
@@ -3022,13 +3028,13 @@
         <v>96836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3049,13 @@
         <v>549733</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>496</v>
@@ -3058,13 +3064,13 @@
         <v>526280</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>1014</v>
@@ -3073,13 +3079,13 @@
         <v>1076013</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3153,13 @@
         <v>61577</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
@@ -3162,13 +3168,13 @@
         <v>96332</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -3177,13 +3183,13 @@
         <v>157909</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3204,13 @@
         <v>956370</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>853</v>
@@ -3213,13 +3219,13 @@
         <v>935852</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1732</v>
@@ -3228,13 +3234,13 @@
         <v>1892222</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3308,13 @@
         <v>47713</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -3317,13 +3323,13 @@
         <v>75460</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -3332,13 +3338,13 @@
         <v>123173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3359,13 @@
         <v>707863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>637</v>
@@ -3368,13 +3374,13 @@
         <v>701714</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>1285</v>
@@ -3383,13 +3389,13 @@
         <v>1409577</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3463,13 @@
         <v>53087</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -3472,13 +3478,13 @@
         <v>91019</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -3487,13 +3493,13 @@
         <v>144106</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3514,13 @@
         <v>894652</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>914</v>
@@ -3523,13 +3529,13 @@
         <v>960882</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>1772</v>
@@ -3538,13 +3544,13 @@
         <v>1855534</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3618,13 @@
         <v>208914</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="H19" s="7">
         <v>314</v>
@@ -3627,13 +3633,13 @@
         <v>338233</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>507</v>
@@ -3642,13 +3648,13 @@
         <v>547147</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3669,13 @@
         <v>3215817</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>2984</v>
@@ -3678,13 +3684,13 @@
         <v>3220076</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>5999</v>
@@ -3693,13 +3699,13 @@
         <v>6435893</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,7 +3761,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +3782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E62CCA3-7C7B-46CF-A8C8-68F94E118437}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACA751E-4D68-42BB-B956-2D1978A6B9EA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3793,7 +3799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3900,13 +3906,13 @@
         <v>10940</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3918,10 +3924,10 @@
         <v>75</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -3930,13 +3936,13 @@
         <v>18890</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3957,13 @@
         <v>105606</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>107</v>
@@ -3969,10 +3975,10 @@
         <v>84</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -3981,13 +3987,13 @@
         <v>211016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>67</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4061,13 @@
         <v>25084</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4070,13 +4076,13 @@
         <v>38193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -4085,13 +4091,13 @@
         <v>63277</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4112,13 @@
         <v>533170</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -4121,13 +4127,13 @@
         <v>521286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>1030</v>
@@ -4136,13 +4142,13 @@
         <v>1054456</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4216,13 @@
         <v>45679</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4225,13 +4231,13 @@
         <v>77008</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -4240,13 +4246,13 @@
         <v>122686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4267,13 @@
         <v>976752</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>906</v>
@@ -4276,13 +4282,13 @@
         <v>965905</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>1814</v>
@@ -4291,13 +4297,13 @@
         <v>1942658</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4371,13 @@
         <v>33193</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>110</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4380,13 +4386,13 @@
         <v>55845</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -4395,13 +4401,13 @@
         <v>89038</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4422,13 @@
         <v>726359</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>685</v>
@@ -4431,13 +4437,13 @@
         <v>729166</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>1353</v>
@@ -4446,13 +4452,13 @@
         <v>1455525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4526,13 @@
         <v>48584</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -4535,13 +4541,13 @@
         <v>94344</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>135</v>
@@ -4550,13 +4556,13 @@
         <v>142929</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4577,13 @@
         <v>888983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>873</v>
@@ -4586,13 +4592,13 @@
         <v>949435</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>1756</v>
@@ -4601,13 +4607,13 @@
         <v>1838417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4681,13 @@
         <v>163481</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="H19" s="7">
         <v>251</v>
@@ -4690,13 +4696,13 @@
         <v>273339</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="M19" s="7">
         <v>406</v>
@@ -4705,13 +4711,13 @@
         <v>436820</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4732,13 @@
         <v>3230869</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>305</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
         <v>3087</v>
@@ -4741,13 +4747,13 @@
         <v>3271203</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>6163</v>
@@ -4756,13 +4762,13 @@
         <v>6502072</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,7 +4824,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4839,7 +4845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BA93D7-6239-42FA-8299-EE1CC0058A6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFC34B0-C360-4731-BFF4-60A8E74E743C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4856,7 +4862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4963,13 +4969,13 @@
         <v>13231</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4978,13 +4984,13 @@
         <v>8035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -4993,13 +4999,13 @@
         <v>21267</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5020,13 @@
         <v>88751</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>231</v>
@@ -5029,13 +5035,13 @@
         <v>122698</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>333</v>
@@ -5044,13 +5050,13 @@
         <v>211448</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5124,13 @@
         <v>32460</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -5133,13 +5139,13 @@
         <v>36823</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M7" s="7">
         <v>107</v>
@@ -5148,13 +5154,13 @@
         <v>69284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5175,13 @@
         <v>517363</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H8" s="7">
         <v>932</v>
@@ -5184,13 +5190,13 @@
         <v>556139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>1501</v>
@@ -5199,13 +5205,13 @@
         <v>1073501</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,13 +5279,13 @@
         <v>49908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -5288,13 +5294,13 @@
         <v>69607</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -5303,13 +5309,13 @@
         <v>119514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5330,13 @@
         <v>989340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>179</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H11" s="7">
         <v>1424</v>
@@ -5339,13 +5345,13 @@
         <v>989867</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>2335</v>
@@ -5354,13 +5360,13 @@
         <v>1979208</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5434,13 @@
         <v>37279</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -5443,13 +5449,13 @@
         <v>42367</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -5458,13 +5464,13 @@
         <v>79645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>127</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5485,13 @@
         <v>691493</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>985</v>
@@ -5494,13 +5500,13 @@
         <v>832004</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>373</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>1623</v>
@@ -5509,13 +5515,13 @@
         <v>1523497</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5589,13 @@
         <v>63523</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -5598,13 +5604,13 @@
         <v>79534</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>192</v>
@@ -5613,13 +5619,13 @@
         <v>143057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5640,13 @@
         <v>901880</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>1447</v>
@@ -5649,13 +5655,13 @@
         <v>1068136</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="M17" s="7">
         <v>2375</v>
@@ -5664,10 +5670,10 @@
         <v>1970016</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>65</v>
@@ -5738,13 +5744,13 @@
         <v>196401</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
         <v>344</v>
@@ -5753,13 +5759,13 @@
         <v>236366</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>572</v>
@@ -5771,10 +5777,10 @@
         <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5795,13 @@
         <v>3188827</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H20" s="7">
         <v>5019</v>
@@ -5804,13 +5810,13 @@
         <v>3568844</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>8167</v>
@@ -5822,10 +5828,10 @@
         <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,7 +5887,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C620D88-48BE-4C70-8B18-B6E8FC607DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7FA9EE4-AC48-4C31-B81C-955B59ADA243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1638CE21-A771-40AE-BB2A-56DF1D4F2EBA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C603D1B-5789-4635-9904-7EFE187D09FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="408">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -86,1165 +86,1183 @@
     <t>9,21%</t>
   </si>
   <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>94,96%</t>
   </si>
   <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>94,54%</t>
   </si>
   <si>
     <t>93,41%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB965F8C-F82B-436D-BCE4-4D7C4D3B842E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C50745E-A21E-4626-BD44-80272AE04830}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2406,7 +2424,7 @@
         <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -2415,13 +2433,13 @@
         <v>69250</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -2430,13 +2448,13 @@
         <v>112272</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,13 +2469,13 @@
         <v>899200</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>932</v>
@@ -2466,13 +2484,13 @@
         <v>969362</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1880</v>
@@ -2481,13 +2499,13 @@
         <v>1868562</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2573,13 @@
         <v>135426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>242</v>
@@ -2570,13 +2588,13 @@
         <v>249341</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>378</v>
@@ -2585,13 +2603,13 @@
         <v>384767</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2624,13 @@
         <v>3140173</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>3055</v>
@@ -2621,13 +2639,13 @@
         <v>3129857</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>6132</v>
@@ -2636,13 +2654,13 @@
         <v>6270029</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,7 +2716,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2719,7 +2737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC14648-CDE1-49DF-83E8-F40E210650ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688AD24E-9B5B-46B5-A8C9-9CE4AA945AD1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2736,7 +2754,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2843,13 +2861,13 @@
         <v>8567</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -2858,13 +2876,13 @@
         <v>16557</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -2873,13 +2891,13 @@
         <v>25123</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2912,13 @@
         <v>107198</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -2909,13 +2927,13 @@
         <v>95348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>196</v>
@@ -2924,13 +2942,13 @@
         <v>202547</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3016,13 @@
         <v>37971</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -3013,13 +3031,13 @@
         <v>58865</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>89</v>
@@ -3028,13 +3046,13 @@
         <v>96836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3067,13 @@
         <v>549733</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>496</v>
@@ -3064,13 +3082,13 @@
         <v>526280</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>1014</v>
@@ -3079,13 +3097,13 @@
         <v>1076013</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3171,13 @@
         <v>61577</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
@@ -3168,13 +3186,13 @@
         <v>96332</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -3183,13 +3201,13 @@
         <v>157909</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3222,13 @@
         <v>956370</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7">
         <v>853</v>
@@ -3219,13 +3237,13 @@
         <v>935852</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1732</v>
@@ -3234,13 +3252,13 @@
         <v>1892222</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3326,13 @@
         <v>47713</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -3323,13 +3341,13 @@
         <v>75460</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -3338,13 +3356,13 @@
         <v>123173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3377,13 @@
         <v>707863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>637</v>
@@ -3374,13 +3392,13 @@
         <v>701714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>1285</v>
@@ -3389,13 +3407,13 @@
         <v>1409577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3481,13 @@
         <v>53087</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -3478,13 +3496,13 @@
         <v>91019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -3493,13 +3511,13 @@
         <v>144106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3532,13 @@
         <v>894652</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>914</v>
@@ -3529,13 +3547,13 @@
         <v>960882</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>1772</v>
@@ -3544,13 +3562,13 @@
         <v>1855534</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3636,13 @@
         <v>208914</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>314</v>
@@ -3633,13 +3651,13 @@
         <v>338233</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>507</v>
@@ -3648,13 +3666,13 @@
         <v>547147</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3687,13 @@
         <v>3215817</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>2984</v>
@@ -3684,13 +3702,13 @@
         <v>3220076</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>5999</v>
@@ -3699,13 +3717,13 @@
         <v>6435893</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,7 +3779,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3782,7 +3800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACA751E-4D68-42BB-B956-2D1978A6B9EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD765BAA-055F-4BF3-AE64-645FA1F7C169}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3799,7 +3817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3906,13 +3924,13 @@
         <v>10940</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3924,10 +3942,10 @@
         <v>75</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -3936,13 +3954,13 @@
         <v>18890</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3975,13 @@
         <v>105606</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="H5" s="7">
         <v>107</v>
@@ -3975,10 +3993,10 @@
         <v>84</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -3987,13 +4005,13 @@
         <v>211016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4079,13 @@
         <v>25084</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -4076,13 +4094,13 @@
         <v>38193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -4091,13 +4109,13 @@
         <v>63277</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4130,13 @@
         <v>533170</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -4127,13 +4145,13 @@
         <v>521286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>1030</v>
@@ -4142,13 +4160,13 @@
         <v>1054456</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4234,13 @@
         <v>45679</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4231,13 +4249,13 @@
         <v>77008</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -4246,13 +4264,13 @@
         <v>122686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4285,13 @@
         <v>976752</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H11" s="7">
         <v>906</v>
@@ -4282,13 +4300,13 @@
         <v>965905</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>1814</v>
@@ -4297,13 +4315,13 @@
         <v>1942658</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4389,13 @@
         <v>33193</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4386,13 +4404,13 @@
         <v>55845</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -4401,13 +4419,13 @@
         <v>89038</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,10 +4440,10 @@
         <v>726359</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>278</v>
@@ -4455,10 +4473,10 @@
         <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4544,13 @@
         <v>48584</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -4544,10 +4562,10 @@
         <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>135</v>
@@ -4556,13 +4574,13 @@
         <v>142929</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4595,13 @@
         <v>888983</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>873</v>
@@ -4592,13 +4610,13 @@
         <v>949435</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>1756</v>
@@ -4607,13 +4625,13 @@
         <v>1838417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4699,13 @@
         <v>163481</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>298</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7">
         <v>251</v>
@@ -4696,13 +4714,13 @@
         <v>273339</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M19" s="7">
         <v>406</v>
@@ -4711,13 +4729,13 @@
         <v>436820</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4750,13 @@
         <v>3230869</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>3087</v>
@@ -4747,13 +4765,13 @@
         <v>3271203</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>6163</v>
@@ -4762,13 +4780,13 @@
         <v>6502072</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,7 +4842,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4845,7 +4863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFC34B0-C360-4731-BFF4-60A8E74E743C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34BEECF-941A-4B61-9560-7FBFB663C90D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4862,7 +4880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4969,13 +4987,13 @@
         <v>13231</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4984,13 +5002,13 @@
         <v>8035</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -4999,13 +5017,13 @@
         <v>21267</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5038,13 @@
         <v>88751</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>231</v>
@@ -5035,13 +5053,13 @@
         <v>122698</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>333</v>
@@ -5050,13 +5068,13 @@
         <v>211448</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5142,13 @@
         <v>32460</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -5139,13 +5157,13 @@
         <v>36823</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>107</v>
@@ -5154,13 +5172,13 @@
         <v>69284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5193,13 @@
         <v>517363</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>932</v>
@@ -5190,13 +5208,13 @@
         <v>556139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>1501</v>
@@ -5205,13 +5223,13 @@
         <v>1073501</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5297,13 @@
         <v>49908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>350</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -5294,13 +5312,13 @@
         <v>69607</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -5309,13 +5327,13 @@
         <v>119514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5348,13 @@
         <v>989340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>1424</v>
@@ -5345,13 +5363,13 @@
         <v>989867</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>2335</v>
@@ -5360,13 +5378,13 @@
         <v>1979208</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5452,13 @@
         <v>37279</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -5449,13 +5467,13 @@
         <v>42367</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -5464,13 +5482,13 @@
         <v>79645</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5503,13 @@
         <v>691493</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>985</v>
@@ -5500,10 +5518,10 @@
         <v>832004</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>374</v>
@@ -5592,10 +5610,10 @@
         <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -5604,13 +5622,13 @@
         <v>79534</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>192</v>
@@ -5619,13 +5637,13 @@
         <v>143057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>56</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,28 +5658,28 @@
         <v>901880</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>1447</v>
       </c>
       <c r="I17" s="7">
-        <v>1068136</v>
+        <v>1068135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>2375</v>
@@ -5670,13 +5688,13 @@
         <v>1970016</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,7 +5721,7 @@
         <v>1561</v>
       </c>
       <c r="I18" s="7">
-        <v>1147670</v>
+        <v>1147669</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -5744,13 +5762,13 @@
         <v>196401</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>344</v>
@@ -5759,13 +5777,13 @@
         <v>236366</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>58</v>
       </c>
       <c r="M19" s="7">
         <v>572</v>
@@ -5774,13 +5792,13 @@
         <v>432766</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5813,13 @@
         <v>3188827</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H20" s="7">
         <v>5019</v>
@@ -5810,13 +5828,13 @@
         <v>3568844</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>399</v>
+        <v>66</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
         <v>8167</v>
@@ -5825,13 +5843,13 @@
         <v>6757672</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,7 +5905,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7FA9EE4-AC48-4C31-B81C-955B59ADA243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B12D3CFA-2A0A-4F2E-A0FA-30472569DFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C603D1B-5789-4635-9904-7EFE187D09FD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D1A3C725-FF04-4C9C-9677-33E231C85C18}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="320">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,1201 +68,937 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
 </sst>
 </file>
@@ -1674,8 +1410,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C50745E-A21E-4626-BD44-80272AE04830}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3707FB0-BC1A-433A-AE1D-ED2535E0645E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1792,10 +1528,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>17258</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1807,10 +1543,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>10384</v>
+        <v>47142</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1822,10 +1558,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N4" s="7">
-        <v>10384</v>
+        <v>64399</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1843,10 +1579,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>664</v>
       </c>
       <c r="D5" s="7">
-        <v>115358</v>
+        <v>675810</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1858,10 +1594,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>117</v>
+        <v>649</v>
       </c>
       <c r="I5" s="7">
-        <v>102371</v>
+        <v>641209</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1873,10 +1609,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>222</v>
+        <v>1313</v>
       </c>
       <c r="N5" s="7">
-        <v>217729</v>
+        <v>1317020</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1894,102 +1630,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>693068</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381419</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>17258</v>
+        <v>37283</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
+        <v>70</v>
+      </c>
+      <c r="I7" s="7">
+        <v>75311</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="7">
-        <v>36757</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="N7" s="7">
-        <v>54015</v>
+        <v>112594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,49 +1734,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>559</v>
+        <v>859</v>
       </c>
       <c r="D8" s="7">
-        <v>560452</v>
+        <v>924517</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>532</v>
+        <v>838</v>
       </c>
       <c r="I8" s="7">
-        <v>538839</v>
+        <v>893082</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1091</v>
+        <v>1697</v>
       </c>
       <c r="N8" s="7">
-        <v>1099291</v>
+        <v>1817599</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,102 +1785,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577710</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153306</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>37283</v>
+        <v>37864</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>75311</v>
+        <v>57638</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="N10" s="7">
-        <v>112594</v>
+        <v>95502</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,49 +1889,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>859</v>
+        <v>606</v>
       </c>
       <c r="D11" s="7">
-        <v>924517</v>
+        <v>640645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>838</v>
+        <v>636</v>
       </c>
       <c r="I11" s="7">
-        <v>893082</v>
+        <v>626203</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1697</v>
+        <v>1242</v>
       </c>
       <c r="N11" s="7">
-        <v>1817599</v>
+        <v>1266848</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,102 +1940,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
-        <v>37864</v>
+        <v>43022</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I13" s="7">
-        <v>57638</v>
+        <v>69250</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="N13" s="7">
-        <v>95502</v>
+        <v>112272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,49 +2044,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>606</v>
+        <v>948</v>
       </c>
       <c r="D14" s="7">
-        <v>640645</v>
+        <v>899200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>636</v>
+        <v>932</v>
       </c>
       <c r="I14" s="7">
-        <v>626203</v>
+        <v>969362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1242</v>
+        <v>1880</v>
       </c>
       <c r="N14" s="7">
-        <v>1266848</v>
+        <v>1868562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,63 +2095,63 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="D16" s="7">
-        <v>43022</v>
+        <v>135426</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2427,10 +2163,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>65</v>
+        <v>242</v>
       </c>
       <c r="I16" s="7">
-        <v>69250</v>
+        <v>249341</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2442,10 +2178,10 @@
         <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>111</v>
+        <v>378</v>
       </c>
       <c r="N16" s="7">
-        <v>112272</v>
+        <v>384767</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -2463,10 +2199,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>948</v>
+        <v>3077</v>
       </c>
       <c r="D17" s="7">
-        <v>899200</v>
+        <v>3140173</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2478,10 +2214,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>932</v>
+        <v>3055</v>
       </c>
       <c r="I17" s="7">
-        <v>969362</v>
+        <v>3129856</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2493,10 +2229,10 @@
         <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1880</v>
+        <v>6132</v>
       </c>
       <c r="N17" s="7">
-        <v>1868562</v>
+        <v>6270029</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -2514,217 +2250,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275599</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654796</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>136</v>
-      </c>
-      <c r="D19" s="7">
-        <v>135426</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>242</v>
-      </c>
-      <c r="I19" s="7">
-        <v>249341</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>378</v>
-      </c>
-      <c r="N19" s="7">
-        <v>384767</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3077</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3140173</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3055</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3129857</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6132</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6270029</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275599</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654796</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>124</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2737,8 +2317,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688AD24E-9B5B-46B5-A8C9-9CE4AA945AD1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EFAA9B-B033-4139-92E8-DA0789CDFD07}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2754,7 +2334,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2855,49 +2435,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>8567</v>
+        <v>46538</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="I4" s="7">
-        <v>16557</v>
+        <v>75422</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="N4" s="7">
-        <v>25123</v>
+        <v>121959</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,49 +2486,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>630</v>
       </c>
       <c r="D5" s="7">
-        <v>107198</v>
+        <v>656931</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>84</v>
+        <v>580</v>
       </c>
       <c r="I5" s="7">
-        <v>95348</v>
+        <v>621628</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>196</v>
+        <v>1210</v>
       </c>
       <c r="N5" s="7">
-        <v>202547</v>
+        <v>1278560</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,102 +2537,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7">
-        <v>37971</v>
+        <v>61577</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="7">
+        <v>87</v>
+      </c>
+      <c r="I7" s="7">
+        <v>96332</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="7">
         <v>144</v>
       </c>
-      <c r="H7" s="7">
+      <c r="N7" s="7">
+        <v>157909</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="7">
-        <v>58865</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M7" s="7">
-        <v>89</v>
-      </c>
-      <c r="N7" s="7">
-        <v>96836</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,49 +2641,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>518</v>
+        <v>879</v>
       </c>
       <c r="D8" s="7">
-        <v>549733</v>
+        <v>956370</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>496</v>
+        <v>853</v>
       </c>
       <c r="I8" s="7">
-        <v>526280</v>
+        <v>935852</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>1014</v>
+        <v>1732</v>
       </c>
       <c r="N8" s="7">
-        <v>1076013</v>
+        <v>1892222</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,102 +2692,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>61577</v>
+        <v>47713</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I10" s="7">
-        <v>96332</v>
+        <v>75460</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="N10" s="7">
-        <v>157909</v>
+        <v>123173</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,49 +2796,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>879</v>
+        <v>648</v>
       </c>
       <c r="D11" s="7">
-        <v>956370</v>
+        <v>707863</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>853</v>
+        <v>637</v>
       </c>
       <c r="I11" s="7">
-        <v>935852</v>
+        <v>701714</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>1732</v>
+        <v>1285</v>
       </c>
       <c r="N11" s="7">
-        <v>1892222</v>
+        <v>1409577</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,102 +2847,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>755576</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1532750</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>47713</v>
+        <v>53087</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="I13" s="7">
-        <v>75460</v>
+        <v>91019</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="N13" s="7">
-        <v>123173</v>
+        <v>144106</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,49 +2951,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>648</v>
+        <v>858</v>
       </c>
       <c r="D14" s="7">
-        <v>707863</v>
+        <v>894652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>637</v>
+        <v>914</v>
       </c>
       <c r="I14" s="7">
-        <v>701714</v>
+        <v>960882</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>1285</v>
+        <v>1772</v>
       </c>
       <c r="N14" s="7">
-        <v>1409577</v>
+        <v>1855534</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,102 +3002,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>755576</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1393</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1532750</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="D16" s="7">
-        <v>53087</v>
+        <v>208914</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>89</v>
+        <v>314</v>
       </c>
       <c r="I16" s="7">
-        <v>91019</v>
+        <v>338233</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>141</v>
+        <v>507</v>
       </c>
       <c r="N16" s="7">
-        <v>144106</v>
+        <v>547147</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,49 +3106,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>858</v>
+        <v>3015</v>
       </c>
       <c r="D17" s="7">
-        <v>894652</v>
+        <v>3215817</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
-        <v>914</v>
+        <v>2984</v>
       </c>
       <c r="I17" s="7">
-        <v>960882</v>
+        <v>3220076</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
-        <v>1772</v>
+        <v>5999</v>
       </c>
       <c r="N17" s="7">
-        <v>1855534</v>
+        <v>6435893</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,217 +3157,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3208</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3424731</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6506</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6983040</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>193</v>
-      </c>
-      <c r="D19" s="7">
-        <v>208914</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="7">
-        <v>314</v>
-      </c>
-      <c r="I19" s="7">
-        <v>338233</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M19" s="7">
-        <v>507</v>
-      </c>
-      <c r="N19" s="7">
-        <v>547147</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3015</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3215817</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2984</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3220076</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5999</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6435893</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3424731</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6506</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6983040</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>124</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3800,8 +3224,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD765BAA-055F-4BF3-AE64-645FA1F7C169}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8290D6-6118-40E3-B4EC-77EEEB49369E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3817,7 +3241,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3918,49 +3342,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>10940</v>
+        <v>36024</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="7">
+        <v>43</v>
+      </c>
+      <c r="I4" s="7">
+        <v>46142</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="7">
+        <v>78</v>
+      </c>
+      <c r="N4" s="7">
+        <v>82167</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H4" s="7">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7949</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M4" s="7">
-        <v>18</v>
-      </c>
-      <c r="N4" s="7">
-        <v>18890</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,49 +3393,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>103</v>
+        <v>617</v>
       </c>
       <c r="D5" s="7">
-        <v>105606</v>
+        <v>638776</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
-        <v>107</v>
+        <v>623</v>
       </c>
       <c r="I5" s="7">
-        <v>105411</v>
+        <v>626697</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
-        <v>210</v>
+        <v>1240</v>
       </c>
       <c r="N5" s="7">
-        <v>211016</v>
+        <v>1265472</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,102 +3444,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7">
-        <v>25084</v>
+        <v>45679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I7" s="7">
-        <v>38193</v>
+        <v>77008</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>91</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="N7" s="7">
-        <v>63277</v>
+        <v>122686</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,49 +3548,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>514</v>
+        <v>908</v>
       </c>
       <c r="D8" s="7">
-        <v>533170</v>
+        <v>976752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
-        <v>516</v>
+        <v>906</v>
       </c>
       <c r="I8" s="7">
-        <v>521286</v>
+        <v>965905</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
-        <v>1030</v>
+        <v>1814</v>
       </c>
       <c r="N8" s="7">
-        <v>1054456</v>
+        <v>1942658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,102 +3599,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>45679</v>
+        <v>33193</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>77008</v>
+        <v>55845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="N10" s="7">
-        <v>122686</v>
+        <v>89038</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,49 +3703,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>908</v>
+        <v>668</v>
       </c>
       <c r="D11" s="7">
-        <v>976752</v>
+        <v>726359</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
-        <v>906</v>
+        <v>685</v>
       </c>
       <c r="I11" s="7">
-        <v>965905</v>
+        <v>729166</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
-        <v>1814</v>
+        <v>1353</v>
       </c>
       <c r="N11" s="7">
-        <v>1942658</v>
+        <v>1455525</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,102 +3754,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>33193</v>
+        <v>48584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="I13" s="7">
-        <v>55845</v>
+        <v>94344</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="N13" s="7">
-        <v>89038</v>
+        <v>142929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,49 +3858,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>668</v>
+        <v>883</v>
       </c>
       <c r="D14" s="7">
-        <v>726359</v>
+        <v>888983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
-        <v>685</v>
+        <v>873</v>
       </c>
       <c r="I14" s="7">
-        <v>729166</v>
+        <v>949435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
-        <v>1353</v>
+        <v>1756</v>
       </c>
       <c r="N14" s="7">
-        <v>1455525</v>
+        <v>1838417</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,102 +3909,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="D16" s="7">
-        <v>48584</v>
+        <v>163481</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="H16" s="7">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="I16" s="7">
-        <v>94344</v>
+        <v>273339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>114</v>
       </c>
       <c r="M16" s="7">
-        <v>135</v>
+        <v>406</v>
       </c>
       <c r="N16" s="7">
-        <v>142929</v>
+        <v>436820</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,49 +4013,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>883</v>
+        <v>3076</v>
       </c>
       <c r="D17" s="7">
-        <v>888983</v>
+        <v>3230869</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="H17" s="7">
-        <v>873</v>
+        <v>3087</v>
       </c>
       <c r="I17" s="7">
-        <v>949435</v>
+        <v>3271203</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
-        <v>1756</v>
+        <v>6163</v>
       </c>
       <c r="N17" s="7">
-        <v>1838417</v>
+        <v>6502072</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,217 +4064,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>155</v>
-      </c>
-      <c r="D19" s="7">
-        <v>163481</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="7">
-        <v>251</v>
-      </c>
-      <c r="I19" s="7">
-        <v>273339</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="M19" s="7">
-        <v>406</v>
-      </c>
-      <c r="N19" s="7">
-        <v>436820</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3076</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3230869</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3087</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3271203</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6163</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6502072</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>124</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4863,8 +4131,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34BEECF-941A-4B61-9560-7FBFB663C90D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9894D34-0FE4-4C2A-BE39-0E7F1670135C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4880,7 +4148,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4981,49 +4249,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7">
-        <v>13231</v>
+        <v>44350</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>95</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I4" s="7">
-        <v>8035</v>
+        <v>42197</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="N4" s="7">
-        <v>21267</v>
+        <v>86547</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,49 +4300,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>671</v>
       </c>
       <c r="D5" s="7">
-        <v>88751</v>
+        <v>591091</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>255</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
-        <v>231</v>
+        <v>1163</v>
       </c>
       <c r="I5" s="7">
-        <v>122698</v>
+        <v>633555</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
-        <v>333</v>
+        <v>1834</v>
       </c>
       <c r="N5" s="7">
-        <v>211448</v>
+        <v>1224647</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,102 +4351,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>32460</v>
+        <v>47488</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="H7" s="7">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I7" s="7">
-        <v>36823</v>
+        <v>63352</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="M7" s="7">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="N7" s="7">
-        <v>69284</v>
+        <v>110840</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,49 +4455,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>569</v>
+        <v>911</v>
       </c>
       <c r="D8" s="7">
-        <v>517363</v>
+        <v>1145376</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="H8" s="7">
-        <v>932</v>
+        <v>1424</v>
       </c>
       <c r="I8" s="7">
-        <v>556139</v>
+        <v>894754</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="M8" s="7">
-        <v>1501</v>
+        <v>2335</v>
       </c>
       <c r="N8" s="7">
-        <v>1073501</v>
+        <v>2040131</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,102 +4506,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>49908</v>
+        <v>35389</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>69607</v>
+        <v>38828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="7">
+        <v>100</v>
+      </c>
+      <c r="N10" s="7">
+        <v>74217</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="M10" s="7">
-        <v>145</v>
-      </c>
-      <c r="N10" s="7">
-        <v>119514</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,49 +4610,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>911</v>
+        <v>638</v>
       </c>
       <c r="D11" s="7">
-        <v>989340</v>
+        <v>669291</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>291</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>292</v>
       </c>
       <c r="H11" s="7">
-        <v>1424</v>
+        <v>985</v>
       </c>
       <c r="I11" s="7">
-        <v>989867</v>
+        <v>894538</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="M11" s="7">
-        <v>2335</v>
+        <v>1623</v>
       </c>
       <c r="N11" s="7">
-        <v>1979208</v>
+        <v>1563829</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,102 +4661,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7">
-        <v>37279</v>
+        <v>60831</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="I13" s="7">
-        <v>42367</v>
+        <v>72467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="N13" s="7">
-        <v>79645</v>
+        <v>133298</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,49 +4765,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>638</v>
+        <v>928</v>
       </c>
       <c r="D14" s="7">
-        <v>691493</v>
+        <v>866000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
-        <v>985</v>
+        <v>1447</v>
       </c>
       <c r="I14" s="7">
-        <v>832004</v>
+        <v>1020126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>265</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
-        <v>1623</v>
+        <v>2375</v>
       </c>
       <c r="N14" s="7">
-        <v>1523497</v>
+        <v>1886126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,102 +4816,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1561</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1092593</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2567</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2019424</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="D16" s="7">
-        <v>63523</v>
+        <v>188058</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="I16" s="7">
-        <v>79534</v>
+        <v>216843</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>19</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
-        <v>192</v>
+        <v>572</v>
       </c>
       <c r="N16" s="7">
-        <v>143057</v>
+        <v>404902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,49 +4920,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>928</v>
+        <v>3148</v>
       </c>
       <c r="D17" s="7">
-        <v>901880</v>
+        <v>3271759</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
-        <v>1447</v>
+        <v>5019</v>
       </c>
       <c r="I17" s="7">
-        <v>1068135</v>
+        <v>3442974</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>28</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
-        <v>2375</v>
+        <v>8167</v>
       </c>
       <c r="N17" s="7">
-        <v>1970016</v>
+        <v>6714732</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,217 +4971,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1561</v>
+        <v>5363</v>
       </c>
       <c r="I18" s="7">
-        <v>1147669</v>
+        <v>3659817</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2567</v>
+        <v>8739</v>
       </c>
       <c r="N18" s="7">
-        <v>2113073</v>
+        <v>7119634</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>228</v>
-      </c>
-      <c r="D19" s="7">
-        <v>196401</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H19" s="7">
-        <v>344</v>
-      </c>
-      <c r="I19" s="7">
-        <v>236366</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="7">
-        <v>572</v>
-      </c>
-      <c r="N19" s="7">
-        <v>432766</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3148</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3188827</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5019</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3568844</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8167</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6757672</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5363</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3805210</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8739</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7190438</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>124</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
